--- a/Code/Results/Cases/Case_2_65/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_65/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.885210370871903</v>
+        <v>0.6324274688181788</v>
       </c>
       <c r="C2">
-        <v>0.400656948879913</v>
+        <v>0.1329156646247043</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.3244978921982451</v>
+        <v>0.5094825150310243</v>
       </c>
       <c r="F2">
-        <v>1.447820407669852</v>
+        <v>1.996243267601514</v>
       </c>
       <c r="G2">
-        <v>0.0007840408834039697</v>
+        <v>0.00240438185066641</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01368114380955321</v>
+        <v>0.03188770868450375</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8660392475424388</v>
+        <v>0.5145993241915932</v>
       </c>
       <c r="N2">
-        <v>0.65240563606649</v>
+        <v>1.107572114958224</v>
       </c>
       <c r="O2">
-        <v>1.369977209111795</v>
+        <v>1.99336100911799</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.638742396843355</v>
+        <v>0.558104782886403</v>
       </c>
       <c r="C3">
-        <v>0.3539859197143471</v>
+        <v>0.1179959648263491</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.297428551930679</v>
+        <v>0.505442239682921</v>
       </c>
       <c r="F3">
-        <v>1.32816341714657</v>
+        <v>1.981317332101412</v>
       </c>
       <c r="G3">
-        <v>0.0007881664177175057</v>
+        <v>0.00240709800672441</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01454985100386175</v>
+        <v>0.0323068925796961</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7551795961522814</v>
+        <v>0.4850356947614358</v>
       </c>
       <c r="N3">
-        <v>0.6762144116622792</v>
+        <v>1.118262505974016</v>
       </c>
       <c r="O3">
-        <v>1.282610969495579</v>
+        <v>1.991779750431164</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.487720838963156</v>
+        <v>0.5124463963037726</v>
       </c>
       <c r="C4">
-        <v>0.3253151521423945</v>
+        <v>0.1087840884221123</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2811924368321073</v>
+        <v>0.503175650801353</v>
       </c>
       <c r="F4">
-        <v>1.257237254296058</v>
+        <v>1.973336956450709</v>
       </c>
       <c r="G4">
-        <v>0.0007907804432168049</v>
+        <v>0.002408854717538593</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0151101886982592</v>
+        <v>0.03257854721530729</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6875641959276351</v>
+        <v>0.4670614605206964</v>
       </c>
       <c r="N4">
-        <v>0.6918680880974364</v>
+        <v>1.125300794649533</v>
       </c>
       <c r="O4">
-        <v>1.232646390631885</v>
+        <v>1.992338727010747</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.426231800295284</v>
+        <v>0.4938350888542402</v>
       </c>
       <c r="C5">
-        <v>0.3136241044491896</v>
+        <v>0.1050175068498618</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2746660384783084</v>
+        <v>0.5023059051203731</v>
       </c>
       <c r="F5">
-        <v>1.228929316110197</v>
+        <v>1.97038247495783</v>
       </c>
       <c r="G5">
-        <v>0.0007918664588287973</v>
+        <v>0.002409593033793302</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.01534512701952861</v>
+        <v>0.03269283806876055</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6601091520441713</v>
+        <v>0.4597818810343313</v>
       </c>
       <c r="N5">
-        <v>0.6984990044170019</v>
+        <v>1.128288272875729</v>
       </c>
       <c r="O5">
-        <v>1.213149959652043</v>
+        <v>1.992950430492755</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.416024129740237</v>
+        <v>0.4907444107247443</v>
       </c>
       <c r="C6">
-        <v>0.3116822569029409</v>
+        <v>0.1043913093225228</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2735875777968033</v>
+        <v>0.502164742080879</v>
       </c>
       <c r="F6">
-        <v>1.224263487299339</v>
+        <v>1.969909853491671</v>
       </c>
       <c r="G6">
-        <v>0.000792048057978334</v>
+        <v>0.002409716988040499</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.01538453165337827</v>
+        <v>0.03271203277069068</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6555558049351475</v>
+        <v>0.4585758437679317</v>
       </c>
       <c r="N6">
-        <v>0.6996150430208914</v>
+        <v>1.128791549177592</v>
       </c>
       <c r="O6">
-        <v>1.20996310111147</v>
+        <v>1.993075168059107</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.486891391284956</v>
+        <v>0.5121954173627046</v>
       </c>
       <c r="C7">
-        <v>0.3251575177073107</v>
+        <v>0.1087333420253742</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2811040639753486</v>
+        <v>0.5031637027621372</v>
       </c>
       <c r="F7">
-        <v>1.256853131339639</v>
+        <v>1.97329590662217</v>
       </c>
       <c r="G7">
-        <v>0.0007907950049376641</v>
+        <v>0.002408864583776125</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.01511333068202836</v>
+        <v>0.03258007404811636</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6871935469423178</v>
+        <v>0.4669631026682168</v>
       </c>
       <c r="N7">
-        <v>0.691956505636071</v>
+        <v>1.125340601655189</v>
       </c>
       <c r="O7">
-        <v>1.23238003203312</v>
+        <v>1.992345423241119</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.800148311334794</v>
+        <v>0.6068064833755216</v>
       </c>
       <c r="C8">
-        <v>0.3845654082952592</v>
+        <v>0.1277820701216967</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3150803702584781</v>
+        <v>0.5080450111583374</v>
       </c>
       <c r="F8">
-        <v>1.406007077729114</v>
+        <v>1.990850895752487</v>
       </c>
       <c r="G8">
-        <v>0.000785446835076106</v>
+        <v>0.002405299954310378</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.01397496976652191</v>
+        <v>0.03202928079197731</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8277114409170423</v>
+        <v>0.504369031579941</v>
       </c>
       <c r="N8">
-        <v>0.6603949282650703</v>
+        <v>1.111159734900347</v>
       </c>
       <c r="O8">
-        <v>1.339052376766375</v>
+        <v>1.992497786721231</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.418131125123125</v>
+        <v>0.7921188745432914</v>
       </c>
       <c r="C9">
-        <v>0.5011401175084416</v>
+        <v>0.1647244371420982</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.385087757292716</v>
+        <v>0.5193150524101</v>
       </c>
       <c r="F9">
-        <v>1.720835893926051</v>
+        <v>2.034685755430417</v>
       </c>
       <c r="G9">
-        <v>0.0007755806610251879</v>
+        <v>0.002399012649979289</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.01196501793182003</v>
+        <v>0.03106241755664962</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.107601538723664</v>
+        <v>0.5791240061617984</v>
       </c>
       <c r="N9">
-        <v>0.6071132446331546</v>
+        <v>1.087113123636541</v>
       </c>
       <c r="O9">
-        <v>1.580332283756803</v>
+        <v>2.004974159292658</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.876277112517243</v>
+        <v>0.9281077717318453</v>
       </c>
       <c r="C10">
-        <v>0.5871310179930447</v>
+        <v>0.1916085370599205</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.4390780677856867</v>
+        <v>0.5286298197521404</v>
       </c>
       <c r="F10">
-        <v>1.968986790761605</v>
+        <v>2.072652942185471</v>
       </c>
       <c r="G10">
-        <v>0.0007686803046119552</v>
+        <v>0.002394817551390237</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.01063646459007828</v>
+        <v>0.03042105294008746</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.317006394963045</v>
+        <v>0.6348939340501261</v>
       </c>
       <c r="N10">
-        <v>0.5738050308721583</v>
+        <v>1.071737358208679</v>
       </c>
       <c r="O10">
-        <v>1.781498210772099</v>
+        <v>2.021622754679782</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.086046870740631</v>
+        <v>0.9899331654424373</v>
       </c>
       <c r="C11">
-        <v>0.62639833928543</v>
+        <v>0.2037817517349083</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.4643149616034492</v>
+        <v>0.5330920529230951</v>
       </c>
       <c r="F11">
-        <v>2.086315440948212</v>
+        <v>2.091182220308283</v>
       </c>
       <c r="G11">
-        <v>0.0007656095048898825</v>
+        <v>0.002393000276698403</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.01006727453681666</v>
+        <v>0.03014425060216119</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.413362713040101</v>
+        <v>0.6604479765349538</v>
       </c>
       <c r="N11">
-        <v>0.5600612091733268</v>
+        <v>1.065239704572491</v>
       </c>
       <c r="O11">
-        <v>1.879246187468539</v>
+        <v>2.030834203096447</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.165716736981267</v>
+        <v>1.013338863821843</v>
       </c>
       <c r="C12">
-        <v>0.6412959302360548</v>
+        <v>0.2083831526624067</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.4739796713174513</v>
+        <v>0.5348140968254427</v>
       </c>
       <c r="F12">
-        <v>2.131454345859808</v>
+        <v>2.098379994382839</v>
       </c>
       <c r="G12">
-        <v>0.0007644558363362197</v>
+        <v>0.002392325152008766</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.009857074184640879</v>
+        <v>0.03004158377994415</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.450032680293589</v>
+        <v>0.6701508570850763</v>
       </c>
       <c r="N12">
-        <v>0.5550721598961914</v>
+        <v>1.062850651938952</v>
       </c>
       <c r="O12">
-        <v>1.917252097281164</v>
+        <v>2.034558821774937</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.148547306402293</v>
+        <v>1.008298320642552</v>
       </c>
       <c r="C13">
-        <v>0.6380861179939359</v>
+        <v>0.2073925324679351</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.47189321624667</v>
+        <v>0.5344417883617183</v>
       </c>
       <c r="F13">
-        <v>2.121700159043542</v>
+        <v>2.09682176450805</v>
       </c>
       <c r="G13">
-        <v>0.0007647039019197655</v>
+        <v>0.002392469973179874</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.009902102389508727</v>
+        <v>0.03006359917520651</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.442126648460558</v>
+        <v>0.6680600119410371</v>
       </c>
       <c r="N13">
-        <v>0.5561368428428466</v>
+        <v>1.06336199824959</v>
       </c>
       <c r="O13">
-        <v>1.909021195970922</v>
+        <v>2.033746128108191</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.09259641840157</v>
+        <v>0.9918588968561153</v>
       </c>
       <c r="C14">
-        <v>0.627623374972643</v>
+        <v>0.204160479913071</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.4651078526594503</v>
+        <v>0.533233079578487</v>
       </c>
       <c r="F14">
-        <v>2.090014412195771</v>
+        <v>2.091770753696267</v>
       </c>
       <c r="G14">
-        <v>0.0007655144117945581</v>
+        <v>0.002392944472894702</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.01004987252199374</v>
+        <v>0.03013576099937598</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.416375781455315</v>
+        <v>0.6612457168495922</v>
       </c>
       <c r="N14">
-        <v>0.5596463618247824</v>
+        <v>1.065041723321777</v>
       </c>
       <c r="O14">
-        <v>1.88235253212062</v>
+        <v>2.031135885821641</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.058356666708846</v>
+        <v>0.9817884342620573</v>
       </c>
       <c r="C15">
-        <v>0.6212184772209071</v>
+        <v>0.2021796632930375</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.4609660278794934</v>
+        <v>0.53249691466727</v>
       </c>
       <c r="F15">
-        <v>2.070700501992619</v>
+        <v>2.088700461246233</v>
       </c>
       <c r="G15">
-        <v>0.0007660120479679382</v>
+        <v>0.002393236813695188</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.01014109010039999</v>
+        <v>0.03018024252227303</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.400627076232922</v>
+        <v>0.6570751556836854</v>
       </c>
       <c r="N15">
-        <v>0.5618245004018974</v>
+        <v>1.066079911321239</v>
       </c>
       <c r="O15">
-        <v>1.866149167212114</v>
+        <v>2.029567855987011</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.862598769938529</v>
+        <v>0.9240665167969837</v>
       </c>
       <c r="C16">
-        <v>0.5845683500870393</v>
+        <v>0.1908118342648493</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.4374432893480531</v>
+        <v>0.5283427238162162</v>
       </c>
       <c r="F16">
-        <v>1.96141436651881</v>
+        <v>2.07146734347171</v>
       </c>
       <c r="G16">
-        <v>0.0007688823081719159</v>
+        <v>0.002394938142366064</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.01067439386678437</v>
+        <v>0.03043944372214025</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.310733377204869</v>
+        <v>0.6332275909405212</v>
       </c>
       <c r="N16">
-        <v>0.5747326431574606</v>
+        <v>1.07217199483383</v>
       </c>
       <c r="O16">
-        <v>1.775243517152859</v>
+        <v>2.021053801979519</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.742882235076536</v>
+        <v>0.8886459166025134</v>
       </c>
       <c r="C17">
-        <v>0.5621273717094368</v>
+        <v>0.1838234214803265</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.4231934845782561</v>
+        <v>0.525851830532801</v>
       </c>
       <c r="F17">
-        <v>1.895557067636815</v>
+        <v>2.061217729543401</v>
       </c>
       <c r="G17">
-        <v>0.0007706601545133237</v>
+        <v>0.002396005140278953</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.01101076102486598</v>
+        <v>0.03060228720106828</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.255884033712391</v>
+        <v>0.6186447706485438</v>
       </c>
       <c r="N17">
-        <v>0.5830209585992421</v>
+        <v>1.07603656102178</v>
       </c>
       <c r="O17">
-        <v>1.721137782094104</v>
+        <v>2.016250865273946</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.674149608825246</v>
+        <v>0.8682695333733932</v>
       </c>
       <c r="C18">
-        <v>0.5492335816735192</v>
+        <v>0.1797985658215282</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4150603454029209</v>
+        <v>0.5244403059147018</v>
       </c>
       <c r="F18">
-        <v>1.85809141540696</v>
+        <v>2.055440798142342</v>
       </c>
       <c r="G18">
-        <v>0.0007716891850897746</v>
+        <v>0.002396627427447174</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.01120752329026331</v>
+        <v>0.03069735826455755</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.224437832059138</v>
+        <v>0.6102744596329188</v>
       </c>
       <c r="N18">
-        <v>0.5879198998668542</v>
+        <v>1.078306122499995</v>
       </c>
       <c r="O18">
-        <v>1.690598553202619</v>
+        <v>2.013642457265433</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.650898268592016</v>
+        <v>0.8613698872900954</v>
       </c>
       <c r="C19">
-        <v>0.544870128054157</v>
+        <v>0.1784349139569485</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.4123171060524555</v>
+        <v>0.5239660255730527</v>
       </c>
       <c r="F19">
-        <v>1.845475203048878</v>
+        <v>2.053505151434692</v>
       </c>
       <c r="G19">
-        <v>0.0007720387251970688</v>
+        <v>0.002396839598301691</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.01127470093528249</v>
+        <v>0.03072978944506932</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.213807450402996</v>
+        <v>0.6074434050333366</v>
       </c>
       <c r="N19">
-        <v>0.5896008420309613</v>
+        <v>1.079082588464189</v>
       </c>
       <c r="O19">
-        <v>1.680355530032301</v>
+        <v>2.012785736587688</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.755613035588453</v>
+        <v>0.892416857920864</v>
       </c>
       <c r="C20">
-        <v>0.5645147932435464</v>
+        <v>0.1845679005491832</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.4247038081407624</v>
+        <v>0.5261147995664643</v>
       </c>
       <c r="F20">
-        <v>1.902524380989803</v>
+        <v>2.062296565100269</v>
       </c>
       <c r="G20">
-        <v>0.0007704702355277525</v>
+        <v>0.00239589066936671</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.01097461140980283</v>
+        <v>0.0305848065230494</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.261712146842129</v>
+        <v>0.62019534446965</v>
       </c>
       <c r="N20">
-        <v>0.5821249299905489</v>
+        <v>1.075620331196504</v>
       </c>
       <c r="O20">
-        <v>1.726836645357025</v>
+        <v>2.016746189232293</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.109023851700613</v>
+        <v>0.9966877310744735</v>
       </c>
       <c r="C21">
-        <v>0.6306957248556557</v>
+        <v>0.2051100398494441</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.4670978556024963</v>
+        <v>0.5335872305961686</v>
       </c>
       <c r="F21">
-        <v>2.099301451839878</v>
+        <v>2.093249439831723</v>
       </c>
       <c r="G21">
-        <v>0.0007652761016376813</v>
+        <v>0.002392804747550548</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.01000632158287384</v>
+        <v>0.03011450690103068</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.423934295009218</v>
+        <v>0.6632465343581657</v>
       </c>
       <c r="N21">
-        <v>0.5586095761738505</v>
+        <v>1.06454640755225</v>
       </c>
       <c r="O21">
-        <v>1.890158085759907</v>
+        <v>2.031896152988622</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.341386547940033</v>
+        <v>1.064797976508714</v>
       </c>
       <c r="C22">
-        <v>0.6741148717296994</v>
+        <v>0.2184868588421409</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.4954402753650982</v>
+        <v>0.5386591033862658</v>
       </c>
       <c r="F22">
-        <v>2.232076608139309</v>
+        <v>2.114534871595083</v>
       </c>
       <c r="G22">
-        <v>0.0007619345953940624</v>
+        <v>0.002390863884671657</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.009404758570504157</v>
+        <v>0.02981968432505422</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.531028975507581</v>
+        <v>0.6915350602229182</v>
       </c>
       <c r="N22">
-        <v>0.544503389612629</v>
+        <v>1.057725539920135</v>
       </c>
       <c r="O22">
-        <v>2.002722908332288</v>
+        <v>2.043176124305518</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.217229231953581</v>
+        <v>1.028449942776604</v>
       </c>
       <c r="C23">
-        <v>0.6509237875710028</v>
+        <v>0.2113519190590978</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.4802514407490932</v>
+        <v>0.5359349438696341</v>
       </c>
       <c r="F23">
-        <v>2.160805740827641</v>
+        <v>2.103077729272229</v>
       </c>
       <c r="G23">
-        <v>0.0007637133771338557</v>
+        <v>0.002391892829318791</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.009722863846301166</v>
+        <v>0.02997588832548637</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.473763796428258</v>
+        <v>0.6764231388899589</v>
       </c>
       <c r="N23">
-        <v>0.5519120793464225</v>
+        <v>1.061327840231726</v>
       </c>
       <c r="O23">
-        <v>1.942078873988009</v>
+        <v>2.03702934856716</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.749857150819253</v>
+        <v>0.8907120545516705</v>
       </c>
       <c r="C24">
-        <v>0.5634354160634416</v>
+        <v>0.1842313437380767</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.4240208070692688</v>
+        <v>0.5259958473346629</v>
       </c>
       <c r="F24">
-        <v>1.899373228576266</v>
+        <v>2.061808463137538</v>
       </c>
       <c r="G24">
-        <v>0.0007705560762890987</v>
+        <v>0.002395942394037638</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.01099094414284352</v>
+        <v>0.03059270502006228</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.259076986415266</v>
+        <v>0.6194942878236844</v>
       </c>
       <c r="N24">
-        <v>0.5825296084899634</v>
+        <v>1.07580835989436</v>
       </c>
       <c r="O24">
-        <v>1.724258430595171</v>
+        <v>2.016521777169459</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.250371540682806</v>
+        <v>0.7420131980952647</v>
       </c>
       <c r="C25">
-        <v>0.4695662631480388</v>
+        <v>0.1547753148178685</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.3657381898416148</v>
+        <v>0.5160844851631836</v>
       </c>
       <c r="F25">
-        <v>1.632955954125549</v>
+        <v>2.021817285799628</v>
       </c>
       <c r="G25">
-        <v>0.0007781862226559148</v>
+        <v>0.002400638729743013</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.01248371207857124</v>
+        <v>0.03131186131075392</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.031308609560902</v>
+        <v>0.5587514616831584</v>
       </c>
       <c r="N25">
-        <v>0.620547312173251</v>
+        <v>1.093215860162104</v>
       </c>
       <c r="O25">
-        <v>1.511195207778684</v>
+        <v>2.000289236793719</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_65/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_65/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6324274688181788</v>
+        <v>1.885210370872016</v>
       </c>
       <c r="C2">
-        <v>0.1329156646247043</v>
+        <v>0.4006569488798846</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.5094825150310243</v>
+        <v>0.3244978921982309</v>
       </c>
       <c r="F2">
-        <v>1.996243267601514</v>
+        <v>1.447820407669838</v>
       </c>
       <c r="G2">
-        <v>0.00240438185066641</v>
+        <v>0.0007840408833464692</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03188770868450375</v>
+        <v>0.01368114380950392</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5145993241915932</v>
+        <v>0.8660392475424175</v>
       </c>
       <c r="N2">
-        <v>1.107572114958224</v>
+        <v>0.6524056360664758</v>
       </c>
       <c r="O2">
-        <v>1.99336100911799</v>
+        <v>1.369977209111795</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.558104782886403</v>
+        <v>1.638742396843384</v>
       </c>
       <c r="C3">
-        <v>0.1179959648263491</v>
+        <v>0.3539859197142903</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.505442239682921</v>
+        <v>0.297428551930679</v>
       </c>
       <c r="F3">
-        <v>1.981317332101412</v>
+        <v>1.328163417146584</v>
       </c>
       <c r="G3">
-        <v>0.00240709800672441</v>
+        <v>0.0007881664176966496</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0323068925796961</v>
+        <v>0.01454985100385908</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4850356947614358</v>
+        <v>0.7551795961522956</v>
       </c>
       <c r="N3">
-        <v>1.118262505974016</v>
+        <v>0.6762144116623503</v>
       </c>
       <c r="O3">
-        <v>1.991779750431164</v>
+        <v>1.282610969495579</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5124463963037726</v>
+        <v>1.487720838963185</v>
       </c>
       <c r="C4">
-        <v>0.1087840884221123</v>
+        <v>0.3253151521423092</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.503175650801353</v>
+        <v>0.2811924368321002</v>
       </c>
       <c r="F4">
-        <v>1.973336956450709</v>
+        <v>1.257237254296058</v>
       </c>
       <c r="G4">
-        <v>0.002408854717538593</v>
+        <v>0.0007907804432555754</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03257854721530729</v>
+        <v>0.01511018869826186</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4670614605206964</v>
+        <v>0.687564195927628</v>
       </c>
       <c r="N4">
-        <v>1.125300794649533</v>
+        <v>0.6918680880974506</v>
       </c>
       <c r="O4">
-        <v>1.992338727010747</v>
+        <v>1.232646390631743</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4938350888542402</v>
+        <v>1.426231800295199</v>
       </c>
       <c r="C5">
-        <v>0.1050175068498618</v>
+        <v>0.3136241044491896</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.5023059051203731</v>
+        <v>0.2746660384783084</v>
       </c>
       <c r="F5">
-        <v>1.97038247495783</v>
+        <v>1.228929316110225</v>
       </c>
       <c r="G5">
-        <v>0.002409593033793302</v>
+        <v>0.0007918664587497075</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.03269283806876055</v>
+        <v>0.0153451270195446</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4597818810343313</v>
+        <v>0.6601091520441713</v>
       </c>
       <c r="N5">
-        <v>1.128288272875729</v>
+        <v>0.698499004416945</v>
       </c>
       <c r="O5">
-        <v>1.992950430492755</v>
+        <v>1.213149959652071</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4907444107247443</v>
+        <v>1.416024129740464</v>
       </c>
       <c r="C6">
-        <v>0.1043913093225228</v>
+        <v>0.311682256903282</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.502164742080879</v>
+        <v>0.2735875777967891</v>
       </c>
       <c r="F6">
-        <v>1.969909853491671</v>
+        <v>1.224263487299339</v>
       </c>
       <c r="G6">
-        <v>0.002409716988040499</v>
+        <v>0.0007920480579972698</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.03271203277069068</v>
+        <v>0.01538453165341691</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4585758437679317</v>
+        <v>0.6555558049351475</v>
       </c>
       <c r="N6">
-        <v>1.128791549177592</v>
+        <v>0.6996150430208914</v>
       </c>
       <c r="O6">
-        <v>1.993075168059107</v>
+        <v>1.209963101111583</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5121954173627046</v>
+        <v>1.486891391284814</v>
       </c>
       <c r="C7">
-        <v>0.1087333420253742</v>
+        <v>0.3251575177073391</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.5031637027621372</v>
+        <v>0.281104063975377</v>
       </c>
       <c r="F7">
-        <v>1.97329590662217</v>
+        <v>1.256853131339668</v>
       </c>
       <c r="G7">
-        <v>0.002408864583776125</v>
+        <v>0.0007907950049754135</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.03258007404811636</v>
+        <v>0.0151133306819804</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4669631026682168</v>
+        <v>0.6871935469423178</v>
       </c>
       <c r="N7">
-        <v>1.125340601655189</v>
+        <v>0.691956505636071</v>
       </c>
       <c r="O7">
-        <v>1.992345423241119</v>
+        <v>1.232380032033177</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6068064833755216</v>
+        <v>1.800148311334624</v>
       </c>
       <c r="C8">
-        <v>0.1277820701216967</v>
+        <v>0.3845654082952592</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.5080450111583374</v>
+        <v>0.315080370258471</v>
       </c>
       <c r="F8">
-        <v>1.990850895752487</v>
+        <v>1.406007077729114</v>
       </c>
       <c r="G8">
-        <v>0.002405299954310378</v>
+        <v>0.0007854468351770253</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.03202928079197731</v>
+        <v>0.01397496976642376</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.504369031579941</v>
+        <v>0.8277114409170423</v>
       </c>
       <c r="N8">
-        <v>1.111159734900347</v>
+        <v>0.6603949282650845</v>
       </c>
       <c r="O8">
-        <v>1.992497786721231</v>
+        <v>1.33905237676646</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7921188745432914</v>
+        <v>2.418131125123011</v>
       </c>
       <c r="C9">
-        <v>0.1647244371420982</v>
+        <v>0.5011401175086405</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5193150524101</v>
+        <v>0.3850877572927303</v>
       </c>
       <c r="F9">
-        <v>2.034685755430417</v>
+        <v>1.720835893926051</v>
       </c>
       <c r="G9">
-        <v>0.002399012649979289</v>
+        <v>0.000775580661050044</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.03106241755664962</v>
+        <v>0.01196501793188132</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5791240061617984</v>
+        <v>1.107601538723657</v>
       </c>
       <c r="N9">
-        <v>1.087113123636541</v>
+        <v>0.6071132446332115</v>
       </c>
       <c r="O9">
-        <v>2.004974159292658</v>
+        <v>1.580332283756832</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9281077717318453</v>
+        <v>2.8762771125173</v>
       </c>
       <c r="C10">
-        <v>0.1916085370599205</v>
+        <v>0.5871310179930447</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.5286298197521404</v>
+        <v>0.4390780677856512</v>
       </c>
       <c r="F10">
-        <v>2.072652942185471</v>
+        <v>1.968986790761605</v>
       </c>
       <c r="G10">
-        <v>0.002394817551390237</v>
+        <v>0.0007686803045886021</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.03042105294008746</v>
+        <v>0.01063646459009338</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6348939340501261</v>
+        <v>1.317006394963045</v>
       </c>
       <c r="N10">
-        <v>1.071737358208679</v>
+        <v>0.5738050308722293</v>
       </c>
       <c r="O10">
-        <v>2.021622754679782</v>
+        <v>1.781498210772043</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9899331654424373</v>
+        <v>3.086046870740688</v>
       </c>
       <c r="C11">
-        <v>0.2037817517349083</v>
+        <v>0.6263983392854016</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.5330920529230951</v>
+        <v>0.4643149616034776</v>
       </c>
       <c r="F11">
-        <v>2.091182220308283</v>
+        <v>2.086315440948241</v>
       </c>
       <c r="G11">
-        <v>0.002393000276698403</v>
+        <v>0.0007656095049182324</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.03014425060216119</v>
+        <v>0.01006727453676604</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6604479765349538</v>
+        <v>1.413362713040101</v>
       </c>
       <c r="N11">
-        <v>1.065239704572491</v>
+        <v>0.560061209173341</v>
       </c>
       <c r="O11">
-        <v>2.030834203096447</v>
+        <v>1.879246187468596</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.013338863821843</v>
+        <v>3.165716736981267</v>
       </c>
       <c r="C12">
-        <v>0.2083831526624067</v>
+        <v>0.6412959302361401</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.5348140968254427</v>
+        <v>0.4739796713174727</v>
       </c>
       <c r="F12">
-        <v>2.098379994382839</v>
+        <v>2.131454345859808</v>
       </c>
       <c r="G12">
-        <v>0.002392325152008766</v>
+        <v>0.0007644558363087332</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.03004158377994415</v>
+        <v>0.009857074184631998</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6701508570850763</v>
+        <v>1.450032680293603</v>
       </c>
       <c r="N12">
-        <v>1.062850651938952</v>
+        <v>0.5550721598961914</v>
       </c>
       <c r="O12">
-        <v>2.034558821774937</v>
+        <v>1.917252097281107</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.008298320642552</v>
+        <v>3.148547306402122</v>
       </c>
       <c r="C13">
-        <v>0.2073925324679351</v>
+        <v>0.6380861179935948</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.5344417883617183</v>
+        <v>0.4718932162466487</v>
       </c>
       <c r="F13">
-        <v>2.09682176450805</v>
+        <v>2.121700159043556</v>
       </c>
       <c r="G13">
-        <v>0.002392469973179874</v>
+        <v>0.0007647039019748059</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.03006359917520651</v>
+        <v>0.009902102389612644</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6680600119410371</v>
+        <v>1.442126648460544</v>
       </c>
       <c r="N13">
-        <v>1.06336199824959</v>
+        <v>0.5561368428428466</v>
       </c>
       <c r="O13">
-        <v>2.033746128108191</v>
+        <v>1.909021195970922</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9918588968561153</v>
+        <v>3.092596418401342</v>
       </c>
       <c r="C14">
-        <v>0.204160479913071</v>
+        <v>0.6276233749723303</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.533233079578487</v>
+        <v>0.4651078526594503</v>
       </c>
       <c r="F14">
-        <v>2.091770753696267</v>
+        <v>2.090014412195771</v>
       </c>
       <c r="G14">
-        <v>0.002392944472894702</v>
+        <v>0.000765514411795533</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.03013576099937598</v>
+        <v>0.01004987252205147</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6612457168495922</v>
+        <v>1.416375781455329</v>
       </c>
       <c r="N14">
-        <v>1.065041723321777</v>
+        <v>0.5596463618247896</v>
       </c>
       <c r="O14">
-        <v>2.031135885821641</v>
+        <v>1.882352532120564</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9817884342620573</v>
+        <v>3.058356666708903</v>
       </c>
       <c r="C15">
-        <v>0.2021796632930375</v>
+        <v>0.6212184772209639</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.53249691466727</v>
+        <v>0.4609660278794863</v>
       </c>
       <c r="F15">
-        <v>2.088700461246233</v>
+        <v>2.070700501992633</v>
       </c>
       <c r="G15">
-        <v>0.002393236813695188</v>
+        <v>0.0007660120479391319</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.03018024252227303</v>
+        <v>0.01014109010050568</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6570751556836854</v>
+        <v>1.400627076232908</v>
       </c>
       <c r="N15">
-        <v>1.066079911321239</v>
+        <v>0.5618245004019045</v>
       </c>
       <c r="O15">
-        <v>2.029567855987011</v>
+        <v>1.866149167212114</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9240665167969837</v>
+        <v>2.862598769938529</v>
       </c>
       <c r="C16">
-        <v>0.1908118342648493</v>
+        <v>0.5845683500866699</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.5283427238162162</v>
+        <v>0.4374432893480531</v>
       </c>
       <c r="F16">
-        <v>2.07146734347171</v>
+        <v>1.961414366518838</v>
       </c>
       <c r="G16">
-        <v>0.002394938142366064</v>
+        <v>0.0007688823081701926</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.03043944372214025</v>
+        <v>0.01067439386674174</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6332275909405212</v>
+        <v>1.310733377204869</v>
       </c>
       <c r="N16">
-        <v>1.07217199483383</v>
+        <v>0.5747326431574749</v>
       </c>
       <c r="O16">
-        <v>2.021053801979519</v>
+        <v>1.775243517152859</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8886459166025134</v>
+        <v>2.742882235076479</v>
       </c>
       <c r="C17">
-        <v>0.1838234214803265</v>
+        <v>0.5621273717102611</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.525851830532801</v>
+        <v>0.423193484578249</v>
       </c>
       <c r="F17">
-        <v>2.061217729543401</v>
+        <v>1.895557067636801</v>
       </c>
       <c r="G17">
-        <v>0.002396005140278953</v>
+        <v>0.0007706601544874967</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.03060228720106828</v>
+        <v>0.01101076102486243</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.6186447706485438</v>
+        <v>1.255884033712391</v>
       </c>
       <c r="N17">
-        <v>1.07603656102178</v>
+        <v>0.5830209585991923</v>
       </c>
       <c r="O17">
-        <v>2.016250865273946</v>
+        <v>1.721137782094189</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8682695333733932</v>
+        <v>2.674149608825189</v>
       </c>
       <c r="C18">
-        <v>0.1797985658215282</v>
+        <v>0.5492335816734339</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.5244403059147018</v>
+        <v>0.4150603454029138</v>
       </c>
       <c r="F18">
-        <v>2.055440798142342</v>
+        <v>1.858091415406975</v>
       </c>
       <c r="G18">
-        <v>0.002396627427447174</v>
+        <v>0.0007716891850585882</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.03069735826455755</v>
+        <v>0.01120752329024644</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.6102744596329188</v>
+        <v>1.224437832059166</v>
       </c>
       <c r="N18">
-        <v>1.078306122499995</v>
+        <v>0.5879198998668542</v>
       </c>
       <c r="O18">
-        <v>2.013642457265433</v>
+        <v>1.690598553202562</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8613698872900954</v>
+        <v>2.650898268592073</v>
       </c>
       <c r="C19">
-        <v>0.1784349139569485</v>
+        <v>0.5448701280539865</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.5239660255730527</v>
+        <v>0.4123171060524555</v>
       </c>
       <c r="F19">
-        <v>2.053505151434692</v>
+        <v>1.845475203048878</v>
       </c>
       <c r="G19">
-        <v>0.002396839598301691</v>
+        <v>0.0007720387251962594</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.03072978944506932</v>
+        <v>0.01127470093527805</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.6074434050333366</v>
+        <v>1.21380745040301</v>
       </c>
       <c r="N19">
-        <v>1.079082588464189</v>
+        <v>0.5896008420309045</v>
       </c>
       <c r="O19">
-        <v>2.012785736587688</v>
+        <v>1.68035553003233</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.892416857920864</v>
+        <v>2.755613035588453</v>
       </c>
       <c r="C20">
-        <v>0.1845679005491832</v>
+        <v>0.5645147932436601</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.5261147995664643</v>
+        <v>0.4247038081407482</v>
       </c>
       <c r="F20">
-        <v>2.062296565100269</v>
+        <v>1.902524380989817</v>
       </c>
       <c r="G20">
-        <v>0.00239589066936671</v>
+        <v>0.0007704702355005578</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.0305848065230494</v>
+        <v>0.01097461140978506</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.62019534446965</v>
+        <v>1.261712146842157</v>
       </c>
       <c r="N20">
-        <v>1.075620331196504</v>
+        <v>0.5821249299905418</v>
       </c>
       <c r="O20">
-        <v>2.016746189232293</v>
+        <v>1.726836645356968</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9966877310744735</v>
+        <v>3.10902385170067</v>
       </c>
       <c r="C21">
-        <v>0.2051100398494441</v>
+        <v>0.6306957248558547</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.5335872305961686</v>
+        <v>0.4670978556025176</v>
       </c>
       <c r="F21">
-        <v>2.093249439831723</v>
+        <v>2.099301451839892</v>
       </c>
       <c r="G21">
-        <v>0.002392804747550548</v>
+        <v>0.0007652761016108057</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.03011450690103068</v>
+        <v>0.0100063215828996</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6632465343581657</v>
+        <v>1.423934295009218</v>
       </c>
       <c r="N21">
-        <v>1.06454640755225</v>
+        <v>0.5586095761739287</v>
       </c>
       <c r="O21">
-        <v>2.031896152988622</v>
+        <v>1.89015808575985</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.064797976508714</v>
+        <v>3.34138654794009</v>
       </c>
       <c r="C22">
-        <v>0.2184868588421409</v>
+        <v>0.6741148717297563</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.5386591033862658</v>
+        <v>0.4954402753651124</v>
       </c>
       <c r="F22">
-        <v>2.114534871595083</v>
+        <v>2.232076608139309</v>
       </c>
       <c r="G22">
-        <v>0.002390863884671657</v>
+        <v>0.0007619345953667716</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.02981968432505422</v>
+        <v>0.009404758570504157</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6915350602229182</v>
+        <v>1.531028975507596</v>
       </c>
       <c r="N22">
-        <v>1.057725539920135</v>
+        <v>0.5445033896126361</v>
       </c>
       <c r="O22">
-        <v>2.043176124305518</v>
+        <v>2.002722908332288</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.028449942776604</v>
+        <v>3.217229231953525</v>
       </c>
       <c r="C23">
-        <v>0.2113519190590978</v>
+        <v>0.6509237875713438</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.5359349438696341</v>
+        <v>0.480251440749079</v>
       </c>
       <c r="F23">
-        <v>2.103077729272229</v>
+        <v>2.160805740827655</v>
       </c>
       <c r="G23">
-        <v>0.002391892829318791</v>
+        <v>0.0007637133771043909</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.02997588832548637</v>
+        <v>0.009722863846288732</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6764231388899589</v>
+        <v>1.473763796428301</v>
       </c>
       <c r="N23">
-        <v>1.061327840231726</v>
+        <v>0.5519120793464083</v>
       </c>
       <c r="O23">
-        <v>2.03702934856716</v>
+        <v>1.942078873987924</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8907120545516705</v>
+        <v>2.74985715081948</v>
       </c>
       <c r="C24">
-        <v>0.1842313437380767</v>
+        <v>0.5634354160630153</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.5259958473346629</v>
+        <v>0.4240208070693043</v>
       </c>
       <c r="F24">
-        <v>2.061808463137538</v>
+        <v>1.899373228576266</v>
       </c>
       <c r="G24">
-        <v>0.002395942394037638</v>
+        <v>0.0007705560762604757</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.03059270502006228</v>
+        <v>0.01099094414289148</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.6194942878236844</v>
+        <v>1.259076986415266</v>
       </c>
       <c r="N24">
-        <v>1.07580835989436</v>
+        <v>0.5825296084899563</v>
       </c>
       <c r="O24">
-        <v>2.016521777169459</v>
+        <v>1.724258430595142</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7420131980952647</v>
+        <v>2.250371540682806</v>
       </c>
       <c r="C25">
-        <v>0.1547753148178685</v>
+        <v>0.4695662631482378</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.5160844851631836</v>
+        <v>0.3657381898415935</v>
       </c>
       <c r="F25">
-        <v>2.021817285799628</v>
+        <v>1.632955954125563</v>
       </c>
       <c r="G25">
-        <v>0.002400638729743013</v>
+        <v>0.0007781862226322463</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.03131186131075392</v>
+        <v>0.01248371207863208</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.5587514616831584</v>
+        <v>1.031308609560895</v>
       </c>
       <c r="N25">
-        <v>1.093215860162104</v>
+        <v>0.6205473121733078</v>
       </c>
       <c r="O25">
-        <v>2.000289236793719</v>
+        <v>1.511195207778627</v>
       </c>
     </row>
   </sheetData>
